--- a/IA_CCBS_BANK_SIDE/Deposits/DepositAccountOpening.xlsx
+++ b/IA_CCBS_BANK_SIDE/Deposits/DepositAccountOpening.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sw\Relational_Files\Interfaces_aa\Interfaces\IA_CCBS_BANK_SIDE\Deposits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB87F95-6E83-411F-8A8A-288D19200ACA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61480962-DB01-4747-89C1-251C01CD42CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{68F28061-2ECD-4B0A-AB1D-3A449686159F}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>Last Update</t>
   </si>
   <si>
-    <t>Sept 9 2023</t>
-  </si>
-  <si>
     <t>decimal (15,2)</t>
   </si>
   <si>
@@ -688,6 +685,9 @@
   </si>
   <si>
     <t>Deposits</t>
+  </si>
+  <si>
+    <t>Sept 6 2023</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1960,7 @@
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -2033,7 +2033,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -2049,7 +2049,7 @@
         <v>21</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -2105,16 +2105,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="24"/>
     </row>
@@ -2123,16 +2123,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="24"/>
     </row>
@@ -2141,16 +2141,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -2159,16 +2159,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>41</v>
-      </c>
       <c r="E5" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="24"/>
     </row>
@@ -2177,16 +2177,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="24"/>
     </row>
@@ -2195,16 +2195,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="24"/>
     </row>
@@ -2213,16 +2213,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="24"/>
     </row>
@@ -2231,16 +2231,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="24"/>
     </row>
@@ -2250,11 +2250,11 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="24"/>
     </row>
@@ -2264,13 +2264,13 @@
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="24">
         <v>1</v>
@@ -2281,16 +2281,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="24"/>
     </row>
@@ -2299,16 +2299,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="24"/>
     </row>
@@ -2317,16 +2317,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -2335,16 +2335,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="24"/>
     </row>
@@ -2353,16 +2353,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="24"/>
     </row>
@@ -2371,16 +2371,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>63</v>
-      </c>
       <c r="D17" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="24"/>
     </row>
@@ -2389,16 +2389,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>65</v>
-      </c>
       <c r="D18" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="24"/>
     </row>
@@ -2407,16 +2407,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="24"/>
     </row>
@@ -2425,16 +2425,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>68</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="24"/>
     </row>
@@ -2443,16 +2443,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="24"/>
     </row>
@@ -2461,16 +2461,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="24"/>
     </row>
@@ -2479,16 +2479,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="D23" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>75</v>
-      </c>
       <c r="E23" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="29"/>
     </row>
@@ -2497,16 +2497,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="24"/>
     </row>
@@ -2515,16 +2515,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>79</v>
-      </c>
       <c r="D25" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="24"/>
     </row>
@@ -2533,16 +2533,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="24"/>
     </row>
@@ -2551,16 +2551,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>83</v>
-      </c>
       <c r="D27" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="24"/>
     </row>
@@ -2569,16 +2569,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>85</v>
-      </c>
       <c r="D28" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="24"/>
     </row>
@@ -2587,16 +2587,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="24"/>
     </row>
@@ -2605,16 +2605,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>89</v>
-      </c>
       <c r="D30" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="24"/>
     </row>
@@ -2623,16 +2623,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="24"/>
     </row>
@@ -2641,16 +2641,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>91</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>92</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="24"/>
     </row>
@@ -2659,16 +2659,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>94</v>
-      </c>
       <c r="D33" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="24"/>
     </row>
@@ -2677,16 +2677,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>96</v>
-      </c>
       <c r="D34" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="24"/>
     </row>
@@ -2695,16 +2695,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>98</v>
-      </c>
       <c r="D35" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="24"/>
     </row>
@@ -2713,16 +2713,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>100</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="24"/>
     </row>
@@ -2731,16 +2731,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="24" t="s">
         <v>101</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>102</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F37" s="24"/>
     </row>
@@ -2749,16 +2749,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="D38" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38" s="24"/>
     </row>
@@ -2767,16 +2767,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>105</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>106</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F39" s="24"/>
     </row>
@@ -2785,16 +2785,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>108</v>
-      </c>
       <c r="D40" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F40" s="24"/>
     </row>
@@ -2803,16 +2803,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="24"/>
     </row>
@@ -2821,16 +2821,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>112</v>
-      </c>
       <c r="D42" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="24"/>
     </row>
@@ -2839,16 +2839,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>114</v>
-      </c>
       <c r="D43" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F43" s="24"/>
     </row>
@@ -2857,16 +2857,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="24" t="s">
         <v>115</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>116</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F44" s="24"/>
     </row>
@@ -2881,10 +2881,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F45" s="24"/>
     </row>
@@ -2893,16 +2893,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>118</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="24"/>
     </row>
@@ -2911,16 +2911,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>120</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47" s="24"/>
     </row>
@@ -2929,16 +2929,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="D48" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" s="24"/>
     </row>
@@ -2947,16 +2947,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="D49" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F49" s="24"/>
     </row>
@@ -2965,16 +2965,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>126</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="24"/>
     </row>
@@ -2983,16 +2983,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>128</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F51" s="24"/>
     </row>
@@ -3001,16 +3001,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F52" s="24"/>
     </row>
@@ -3019,16 +3019,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>132</v>
-      </c>
       <c r="D53" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53" s="24"/>
     </row>
@@ -3037,16 +3037,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>134</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F54" s="24"/>
     </row>
@@ -3055,16 +3055,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>136</v>
-      </c>
       <c r="D55" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F55" s="24"/>
     </row>
@@ -3073,16 +3073,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>138</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F56" s="24"/>
     </row>
@@ -3091,16 +3091,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>140</v>
-      </c>
       <c r="D57" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F57" s="24"/>
     </row>
@@ -3109,16 +3109,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>142</v>
-      </c>
       <c r="D58" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F58" s="24"/>
     </row>
@@ -3127,16 +3127,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>144</v>
-      </c>
       <c r="D59" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F59" s="24"/>
     </row>
@@ -3145,16 +3145,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>146</v>
-      </c>
       <c r="D60" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F60" s="24"/>
     </row>
@@ -3163,16 +3163,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>148</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" s="24"/>
     </row>
@@ -3181,16 +3181,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>150</v>
-      </c>
       <c r="D62" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F62" s="24"/>
     </row>
@@ -3199,16 +3199,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="24" t="s">
         <v>151</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>152</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F63" s="24"/>
     </row>
@@ -3217,16 +3217,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>154</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" s="24"/>
     </row>
@@ -3235,16 +3235,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="24" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>156</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" s="24"/>
     </row>
@@ -3253,16 +3253,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>158</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F66" s="24"/>
     </row>
@@ -3271,16 +3271,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="24" t="s">
         <v>159</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>160</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F67" s="24"/>
     </row>
@@ -3289,16 +3289,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>162</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" s="24"/>
     </row>
@@ -3307,16 +3307,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>164</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F69" s="24"/>
     </row>
@@ -3325,16 +3325,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F70" s="24"/>
     </row>
@@ -3343,16 +3343,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>168</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F71" s="24"/>
     </row>
@@ -3361,16 +3361,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>169</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>170</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F72" s="24"/>
     </row>
@@ -3379,16 +3379,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>171</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>172</v>
       </c>
       <c r="D73" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F73" s="24"/>
     </row>
@@ -3397,16 +3397,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="D74" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="24" t="s">
-        <v>175</v>
-      </c>
       <c r="E74" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" s="24"/>
     </row>
@@ -3415,16 +3415,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>177</v>
-      </c>
       <c r="D75" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75" s="24"/>
     </row>
@@ -3433,16 +3433,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>179</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F76" s="24"/>
     </row>
@@ -3451,16 +3451,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>181</v>
-      </c>
       <c r="D77" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" s="24"/>
     </row>
@@ -3469,16 +3469,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>183</v>
-      </c>
       <c r="D78" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F78" s="24"/>
     </row>
@@ -3487,16 +3487,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>185</v>
-      </c>
       <c r="D79" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F79" s="24"/>
     </row>
@@ -3505,16 +3505,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80" s="24"/>
     </row>
@@ -3523,16 +3523,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>188</v>
-      </c>
       <c r="D81" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81" s="24"/>
     </row>
@@ -3541,16 +3541,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C82" s="24" t="s">
-        <v>190</v>
-      </c>
       <c r="D82" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F82" s="24"/>
     </row>
@@ -3559,16 +3559,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F83" s="24"/>
     </row>
@@ -3577,16 +3577,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C84" s="24" t="s">
-        <v>194</v>
-      </c>
       <c r="D84" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F84" s="24"/>
     </row>
@@ -3595,16 +3595,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F85" s="24"/>
     </row>
@@ -3613,16 +3613,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>197</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F86" s="24"/>
     </row>
@@ -3632,11 +3632,11 @@
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F87" s="24"/>
     </row>
@@ -3645,16 +3645,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C88" s="24" t="s">
-        <v>200</v>
-      </c>
       <c r="D88" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" s="24"/>
     </row>
@@ -3663,16 +3663,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>201</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>202</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F89" s="24"/>
     </row>
@@ -3681,16 +3681,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>204</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" s="24"/>
     </row>
@@ -3699,16 +3699,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F91" s="24"/>
     </row>
@@ -3717,16 +3717,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>206</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>207</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F92" s="24"/>
     </row>
@@ -4297,16 +4297,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="28"/>
     </row>
@@ -4315,16 +4315,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>210</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="28"/>
     </row>
@@ -4333,16 +4333,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>212</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F4" s="28"/>
     </row>
@@ -4351,16 +4351,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>214</v>
-      </c>
       <c r="D5" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="28"/>
     </row>
@@ -4369,16 +4369,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" s="28"/>
     </row>
@@ -4387,16 +4387,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>216</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>217</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -4405,14 +4405,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>209</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>210</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F8" s="28"/>
     </row>
@@ -4421,14 +4421,14 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>211</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>212</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="28"/>
     </row>
